--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,6 +89,12 @@
   </si>
   <si>
     <t>Il12rb1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.41965097313743</v>
+        <v>0.09838366666666666</v>
       </c>
       <c r="H2">
-        <v>1.41965097313743</v>
+        <v>0.295151</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.28317181871857</v>
+        <v>0.312163</v>
       </c>
       <c r="N2">
-        <v>1.28317181871857</v>
+        <v>0.936489</v>
       </c>
       <c r="O2">
-        <v>0.8692200067535399</v>
+        <v>0.09983888064854564</v>
       </c>
       <c r="P2">
-        <v>0.8692200067535399</v>
+        <v>0.09983888064854564</v>
       </c>
       <c r="Q2">
-        <v>1.821656121146344</v>
+        <v>0.03071174053766667</v>
       </c>
       <c r="R2">
-        <v>1.821656121146344</v>
+        <v>0.276405664839</v>
       </c>
       <c r="S2">
-        <v>0.8692200067535399</v>
+        <v>0.003541335583171942</v>
       </c>
       <c r="T2">
-        <v>0.8692200067535399</v>
+        <v>0.003541335583171942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -590,49 +602,1041 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.41965097313743</v>
+        <v>0.09838366666666666</v>
       </c>
       <c r="H3">
-        <v>1.41965097313743</v>
+        <v>0.295151</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.193061826099505</v>
+        <v>0.2457846666666667</v>
       </c>
       <c r="N3">
-        <v>0.193061826099505</v>
+        <v>0.737354</v>
       </c>
       <c r="O3">
-        <v>0.1307799932464601</v>
+        <v>0.07860914330197975</v>
       </c>
       <c r="P3">
-        <v>0.1307799932464601</v>
+        <v>0.07860914330197975</v>
       </c>
       <c r="Q3">
-        <v>0.2740804092978516</v>
+        <v>0.02418119671711111</v>
       </c>
       <c r="R3">
-        <v>0.2740804092978516</v>
+        <v>0.217630770454</v>
       </c>
       <c r="S3">
-        <v>0.1307799932464601</v>
+        <v>0.002788306064026554</v>
       </c>
       <c r="T3">
-        <v>0.1307799932464601</v>
+        <v>0.002788306064026554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.09838366666666666</v>
+      </c>
+      <c r="H4">
+        <v>0.295151</v>
+      </c>
+      <c r="I4">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="J4">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.8727006666666667</v>
+      </c>
+      <c r="N4">
+        <v>2.618102</v>
+      </c>
+      <c r="O4">
+        <v>0.279115262543093</v>
+      </c>
+      <c r="P4">
+        <v>0.279115262543093</v>
+      </c>
+      <c r="Q4">
+        <v>0.08585949148911111</v>
+      </c>
+      <c r="R4">
+        <v>0.772735423402</v>
+      </c>
+      <c r="S4">
+        <v>0.009900359505529298</v>
+      </c>
+      <c r="T4">
+        <v>0.009900359505529298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.09838366666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.295151</v>
+      </c>
+      <c r="I5">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="J5">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.369226</v>
+      </c>
+      <c r="N5">
+        <v>4.107678</v>
+      </c>
+      <c r="O5">
+        <v>0.4379186232669648</v>
+      </c>
+      <c r="P5">
+        <v>0.4379186232669648</v>
+      </c>
+      <c r="Q5">
+        <v>0.1347094743753333</v>
+      </c>
+      <c r="R5">
+        <v>1.212385269378</v>
+      </c>
+      <c r="S5">
+        <v>0.01553319501415666</v>
+      </c>
+      <c r="T5">
+        <v>0.01553319501415666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.09838366666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.295151</v>
+      </c>
+      <c r="I6">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="J6">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04119366666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.123581</v>
+      </c>
+      <c r="O6">
+        <v>0.01317494248136168</v>
+      </c>
+      <c r="P6">
+        <v>0.01317494248136168</v>
+      </c>
+      <c r="Q6">
+        <v>0.00405278397011111</v>
+      </c>
+      <c r="R6">
+        <v>0.036475055731</v>
+      </c>
+      <c r="S6">
+        <v>0.0004673218721244688</v>
+      </c>
+      <c r="T6">
+        <v>0.0004673218721244688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.09838366666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.295151</v>
+      </c>
+      <c r="I7">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="J7">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2855996666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.856799</v>
+      </c>
+      <c r="O7">
+        <v>0.09134314775805508</v>
+      </c>
+      <c r="P7">
+        <v>0.09134314775805508</v>
+      </c>
+      <c r="Q7">
+        <v>0.02809834240544444</v>
+      </c>
+      <c r="R7">
+        <v>0.252885081649</v>
+      </c>
+      <c r="S7">
+        <v>0.003239987641420386</v>
+      </c>
+      <c r="T7">
+        <v>0.003239987641420386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.331118</v>
+      </c>
+      <c r="I8">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J8">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.312163</v>
+      </c>
+      <c r="N8">
+        <v>0.936489</v>
+      </c>
+      <c r="O8">
+        <v>0.09983888064854564</v>
+      </c>
+      <c r="P8">
+        <v>0.09983888064854564</v>
+      </c>
+      <c r="Q8">
+        <v>0.2425629294113333</v>
+      </c>
+      <c r="R8">
+        <v>2.183066364702</v>
+      </c>
+      <c r="S8">
+        <v>0.02796965323503092</v>
+      </c>
+      <c r="T8">
+        <v>0.02796965323503092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.331118</v>
+      </c>
+      <c r="I9">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J9">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.2457846666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.737354</v>
+      </c>
+      <c r="O9">
+        <v>0.07860914330197975</v>
+      </c>
+      <c r="P9">
+        <v>0.07860914330197975</v>
+      </c>
+      <c r="Q9">
+        <v>0.1909843535302222</v>
+      </c>
+      <c r="R9">
+        <v>1.718859181772</v>
+      </c>
+      <c r="S9">
+        <v>0.02202218679713589</v>
+      </c>
+      <c r="T9">
+        <v>0.02202218679713589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.331118</v>
+      </c>
+      <c r="I10">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J10">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.8727006666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.618102</v>
+      </c>
+      <c r="O10">
+        <v>0.279115262543093</v>
+      </c>
+      <c r="P10">
+        <v>0.279115262543093</v>
+      </c>
+      <c r="Q10">
+        <v>0.6781227442262222</v>
+      </c>
+      <c r="R10">
+        <v>6.103104698036</v>
+      </c>
+      <c r="S10">
+        <v>0.07819355600967115</v>
+      </c>
+      <c r="T10">
+        <v>0.07819355600967115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.331118</v>
+      </c>
+      <c r="I11">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J11">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.369226</v>
+      </c>
+      <c r="N11">
+        <v>4.107678</v>
+      </c>
+      <c r="O11">
+        <v>0.4379186232669648</v>
+      </c>
+      <c r="P11">
+        <v>0.4379186232669648</v>
+      </c>
+      <c r="Q11">
+        <v>1.063942458222667</v>
+      </c>
+      <c r="R11">
+        <v>9.575482124003999</v>
+      </c>
+      <c r="S11">
+        <v>0.1226819847976488</v>
+      </c>
+      <c r="T11">
+        <v>0.1226819847976488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.331118</v>
+      </c>
+      <c r="I12">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J12">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04119366666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.123581</v>
+      </c>
+      <c r="O12">
+        <v>0.01317494248136168</v>
+      </c>
+      <c r="P12">
+        <v>0.01317494248136168</v>
+      </c>
+      <c r="Q12">
+        <v>0.03200909928422222</v>
+      </c>
+      <c r="R12">
+        <v>0.288081893558</v>
+      </c>
+      <c r="S12">
+        <v>0.003690932532510639</v>
+      </c>
+      <c r="T12">
+        <v>0.003690932532510639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.331118</v>
+      </c>
+      <c r="I13">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J13">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2855996666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.856799</v>
+      </c>
+      <c r="O13">
+        <v>0.09134314775805508</v>
+      </c>
+      <c r="P13">
+        <v>0.09134314775805508</v>
+      </c>
+      <c r="Q13">
+        <v>0.2219221745868889</v>
+      </c>
+      <c r="R13">
+        <v>1.997299571282</v>
+      </c>
+      <c r="S13">
+        <v>0.02558959146569928</v>
+      </c>
+      <c r="T13">
+        <v>0.02558959146569928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H14">
+        <v>5.694757</v>
+      </c>
+      <c r="I14">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J14">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.312163</v>
+      </c>
+      <c r="N14">
+        <v>0.936489</v>
+      </c>
+      <c r="O14">
+        <v>0.09983888064854564</v>
+      </c>
+      <c r="P14">
+        <v>0.09983888064854564</v>
+      </c>
+      <c r="Q14">
+        <v>0.5925641431303335</v>
+      </c>
+      <c r="R14">
+        <v>5.333077288173</v>
+      </c>
+      <c r="S14">
+        <v>0.06832789183034277</v>
+      </c>
+      <c r="T14">
+        <v>0.06832789183034277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.694757</v>
+      </c>
+      <c r="I15">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J15">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.2457846666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.737354</v>
+      </c>
+      <c r="O15">
+        <v>0.07860914330197975</v>
+      </c>
+      <c r="P15">
+        <v>0.07860914330197975</v>
+      </c>
+      <c r="Q15">
+        <v>0.4665613169975555</v>
+      </c>
+      <c r="R15">
+        <v>4.199051852978</v>
+      </c>
+      <c r="S15">
+        <v>0.05379865044081731</v>
+      </c>
+      <c r="T15">
+        <v>0.05379865044081731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.694757</v>
+      </c>
+      <c r="I16">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J16">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.8727006666666667</v>
+      </c>
+      <c r="N16">
+        <v>2.618102</v>
+      </c>
+      <c r="O16">
+        <v>0.279115262543093</v>
+      </c>
+      <c r="P16">
+        <v>0.279115262543093</v>
+      </c>
+      <c r="Q16">
+        <v>1.656606076801556</v>
+      </c>
+      <c r="R16">
+        <v>14.909454691214</v>
+      </c>
+      <c r="S16">
+        <v>0.1910213470278926</v>
+      </c>
+      <c r="T16">
+        <v>0.1910213470278926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.694757</v>
+      </c>
+      <c r="I17">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J17">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.369226</v>
+      </c>
+      <c r="N17">
+        <v>4.107678</v>
+      </c>
+      <c r="O17">
+        <v>0.4379186232669648</v>
+      </c>
+      <c r="P17">
+        <v>0.4379186232669648</v>
+      </c>
+      <c r="Q17">
+        <v>2.599136449360667</v>
+      </c>
+      <c r="R17">
+        <v>23.392228044246</v>
+      </c>
+      <c r="S17">
+        <v>0.2997034434551594</v>
+      </c>
+      <c r="T17">
+        <v>0.2997034434551594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.694757</v>
+      </c>
+      <c r="I18">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J18">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04119366666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.123581</v>
+      </c>
+      <c r="O18">
+        <v>0.01317494248136168</v>
+      </c>
+      <c r="P18">
+        <v>0.01317494248136168</v>
+      </c>
+      <c r="Q18">
+        <v>0.07819597386855555</v>
+      </c>
+      <c r="R18">
+        <v>0.703763764817</v>
+      </c>
+      <c r="S18">
+        <v>0.00901668807672657</v>
+      </c>
+      <c r="T18">
+        <v>0.00901668807672657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.694757</v>
+      </c>
+      <c r="I19">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J19">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2855996666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.856799</v>
+      </c>
+      <c r="O19">
+        <v>0.09134314775805508</v>
+      </c>
+      <c r="P19">
+        <v>0.09134314775805508</v>
+      </c>
+      <c r="Q19">
+        <v>0.5421402336492221</v>
+      </c>
+      <c r="R19">
+        <v>4.879262102843</v>
+      </c>
+      <c r="S19">
+        <v>0.06251356865093541</v>
+      </c>
+      <c r="T19">
+        <v>0.06251356865093541</v>
       </c>
     </row>
   </sheetData>
